--- a/assets/keyframes/keyframes.xlsx
+++ b/assets/keyframes/keyframes.xlsx
@@ -453,7 +453,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="n">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -559,25 +559,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F5" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -745,25 +745,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F11" t="n">
         <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0.1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.13</v>
+        <v>-0.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H13" t="n">
         <v>-0.1</v>
@@ -838,25 +838,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -869,25 +869,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D16" t="n">
         <v>0.2</v>
@@ -912,13 +912,13 @@
         <v>0.2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G16" t="n">
         <v>0.1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -931,25 +931,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0.8</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="E17" t="n">
         <v>0.7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -965,22 +965,22 @@
         <v>-0.2</v>
       </c>
       <c r="C18" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -993,25 +993,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F19" t="n">
         <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1024,19 +1024,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.5</v>
       </c>
-      <c r="D20" t="n">
-        <v>-0.1</v>
-      </c>
       <c r="E20" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0.3</v>
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D21" t="n">
         <v>0.2</v>
@@ -1067,7 +1067,7 @@
         <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
         <v>0.1</v>
@@ -1092,19 +1092,19 @@
         <v>0.8</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1117,25 +1117,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>

--- a/assets/keyframes/keyframes.xlsx
+++ b/assets/keyframes/keyframes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,31 +438,55 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="I1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_x</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -487,13 +511,37 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_y</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -518,13 +566,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_z</t>
+          <t>boardEuler_x</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -534,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -549,44 +621,92 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>boardPos_x</t>
+          <t>boardEuler_y</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>boardPos_y</t>
+          <t>boardEuler_z</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -596,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -611,44 +731,92 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>boardPos_z</t>
+          <t>boardPos_x</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>bodyHipEuler_x</t>
+          <t>boardPos_y</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -673,17 +841,41 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>bodyHipEuler_y</t>
+          <t>boardPos_z</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -701,41 +893,89 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>bodyHipEuler_z</t>
+          <t>hip_twist</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="11">
@@ -748,25 +988,49 @@
         <v>-0.1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E11" t="n">
         <v>-0.3</v>
       </c>
-      <c r="E11" t="n">
-        <v>-0.1</v>
-      </c>
       <c r="F11" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G11" t="n">
         <v>-0.1</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
@@ -776,28 +1040,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3</v>
+        <v>-0.02</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1</v>
+        <v>-0.03</v>
       </c>
       <c r="E12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.4</v>
       </c>
-      <c r="F12" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
+      <c r="O12" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13">
@@ -810,25 +1098,49 @@
         <v>-0.1</v>
       </c>
       <c r="C13" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" t="n">
         <v>-0.2</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>-0.2</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="O13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P13" t="n">
         <v>-0.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
+      <c r="Q13" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="14">
@@ -841,25 +1153,49 @@
         <v>0.7</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.5</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="P14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" t="n">
         <v>0.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -872,24 +1208,48 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="G15" t="n">
         <v>0.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -906,22 +1266,46 @@
         <v>0.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
@@ -934,24 +1318,48 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.8</v>
       </c>
-      <c r="D17" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="M17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.7</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="O17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P17" t="n">
         <v>0.4</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="Q17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -962,27 +1370,51 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
         <v>-1.5</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -996,25 +1428,49 @@
         <v>-0.5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="D19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.8</v>
       </c>
-      <c r="E19" t="n">
+      <c r="N19" t="n">
         <v>0.8</v>
       </c>
-      <c r="F19" t="n">
+      <c r="O19" t="n">
         <v>0.5</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="P19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1027,25 +1483,49 @@
         <v>0.1</v>
       </c>
       <c r="C20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.4</v>
       </c>
-      <c r="D20" t="n">
+      <c r="M20" t="n">
         <v>0.5</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
+      <c r="N20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1061,22 +1541,46 @@
         <v>0.1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
@@ -1086,28 +1590,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.8</v>
       </c>
-      <c r="D22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="N22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P22" t="n">
         <v>0.4</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
+      <c r="Q22" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
@@ -1117,28 +1645,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="C23" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/assets/keyframes/keyframes.xlsx
+++ b/assets/keyframes/keyframes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,55 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>11</v>
+        <v>18.2</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>11.5</v>
+        <v>20.7</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>12</v>
+        <v>20.9</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>15.5</v>
+        <v>26.1</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>16</v>
+        <v>26.4</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>17</v>
+        <v>26.7</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>24</v>
+        <v>31.6</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>26</v>
+        <v>31.9</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>28</v>
+        <v>34.5</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>29</v>
+        <v>34.8</v>
       </c>
       <c r="Q1" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>camera_x</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,31 +499,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -535,123 +538,132 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>camera_y</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_x</t>
+          <t>camera_z</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_y</t>
+          <t>target_x</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -691,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -700,32 +712,35 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_z</t>
+          <t>target_y</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -743,135 +758,144 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>boardPos_x</t>
+          <t>target_z</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.1</v>
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>boardPos_y</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>boardPos_z</t>
+          <t>boardEuler_x</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -911,53 +935,56 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>hip_twist</t>
+          <t>boardEuler_y</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -975,209 +1002,221 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>bodyHipPosition_x</t>
+          <t>boardEuler_z</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1</v>
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>bodyHipPosition_y</t>
+          <t>boardPos_x</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03</v>
+        <v>-0.3</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03</v>
+        <v>0.2</v>
       </c>
       <c r="H12" t="n">
         <v>-0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03</v>
+        <v>-0.2</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.02</v>
+        <v>0.2</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.31</v>
+        <v>-0.1</v>
       </c>
       <c r="M12" t="n">
         <v>0.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.02</v>
+        <v>0.1</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02</v>
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>bodyHipPosition_z</t>
+          <t>boardPos_y</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1</v>
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>hip_rotation_r</t>
+          <t>boardPos_z</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1189,304 +1228,322 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>hip_flexion_r</t>
+          <t>body_twist</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.43</v>
+        <v>-0.1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="Q15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="R15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>hip_abduction_r</t>
+          <t>bodyHipPosition_x</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>knee_flexion_r</t>
+          <t>bodyHipPosition_y</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>-0.03</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5</v>
+        <v>-0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8</v>
+        <v>-0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2</v>
+        <v>-0.31</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4</v>
+        <v>-0.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-0.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ankle_flexion_r</t>
+          <t>bodyHipPosition_z</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.5</v>
+        <v>-0.2</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>-0.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>hip_rotation_l</t>
+          <t>hip_rotation_r</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.5</v>
+        <v>0.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>hip_flexion_l</t>
+          <t>hip_flexion_r</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0.3</v>
@@ -1495,7 +1552,7 @@
         <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0.3</v>
@@ -1504,44 +1561,47 @@
         <v>0.1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>0.4</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hip_abduction_l</t>
+          <t>hip_abduction_r</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1559,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M21" t="n">
         <v>0.2</v>
@@ -1577,120 +1637,419 @@
         <v>0.2</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>knee_flexion_l</t>
+          <t>knee_flexion_r</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>0.8</v>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
       <c r="N22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>0.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>ankle_flexion_r</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>hip_rotation_l</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>hip_flexion_l</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>hip_abduction_l</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>knee_flexion_l</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>ankle_flexion_l</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="B28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.3</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F28" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G28" t="n">
         <v>0.3</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H28" t="n">
         <v>0.3</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J28" t="n">
         <v>0.3</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="K28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.1</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="N28" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="O28" t="n">
         <v>0.3</v>
       </c>
-      <c r="O23" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.2</v>
+      <c r="P28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/keyframes/keyframes.xlsx
+++ b/assets/keyframes/keyframes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,58 @@
         <v>34.5</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>34.8</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="1" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="R1" s="1" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="S1" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>49.6</v>
       </c>
     </row>
     <row r="2">
@@ -538,10 +583,55 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.6</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.6</v>
+      <c r="X2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -596,10 +686,55 @@
         <v>0.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -654,10 +789,55 @@
         <v>0.8</v>
       </c>
       <c r="Q4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.7</v>
       </c>
-      <c r="R4" t="n">
+      <c r="Z4" t="n">
         <v>0.7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -717,6 +897,51 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -767,13 +992,58 @@
         <v>0.5</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -833,6 +1103,51 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -880,15 +1195,60 @@
         <v>0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -938,15 +1298,60 @@
         <v>0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="P9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6.3</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,6 +1412,51 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1057,12 +1507,57 @@
         <v>-0.1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1082,16 +1577,16 @@
         <v>-0.1</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2</v>
@@ -1115,13 +1610,58 @@
         <v>0.1</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R12" t="n">
         <v>0.1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -1173,12 +1713,57 @@
         <v>0.5</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1228,15 +1813,60 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1289,13 +1919,58 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0.1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-0.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="16">
@@ -1314,16 +1989,16 @@
         <v>-0.1</v>
       </c>
       <c r="E16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F16" t="n">
         <v>-0.2</v>
       </c>
-      <c r="F16" t="n">
-        <v>-0.3</v>
-      </c>
       <c r="G16" t="n">
         <v>0.3</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
         <v>-0.2</v>
@@ -1344,16 +2019,61 @@
         <v>-0.3</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
@@ -1372,16 +2092,16 @@
         <v>-0.02</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="I17" t="n">
         <v>-0.2</v>
@@ -1405,13 +2125,58 @@
         <v>0.4</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.02</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" t="n">
         <v>-0.02</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.31</v>
+        <v>-0.04</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="18">
@@ -1460,16 +2225,61 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="P18" t="n">
         <v>-0.2</v>
       </c>
-      <c r="P18" t="n">
-        <v>-0.1</v>
-      </c>
       <c r="Q18" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
@@ -1521,13 +2331,58 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0.7</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
@@ -1579,13 +2434,58 @@
         <v>0.4</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21">
@@ -1643,7 +2543,52 @@
         <v>0.2</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1668,7 +2613,7 @@
         <v>0.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1692,16 +2637,61 @@
         <v>0.2</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8</v>
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
@@ -1711,13 +2701,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E23" t="n">
         <v>-0.6</v>
@@ -1726,7 +2716,7 @@
         <v>0.9</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
         <v>-0.6</v>
@@ -1750,16 +2740,61 @@
         <v>-1.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>-0.6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="24">
@@ -1808,16 +2843,61 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q24" t="n">
         <v>-0.5</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="25">
@@ -1869,13 +2949,58 @@
         <v>0.4</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.1</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
@@ -1885,13 +3010,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1915,7 +3040,7 @@
         <v>0.1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0.1</v>
@@ -1924,7 +3049,7 @@
         <v>0.9</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P26" t="n">
         <v>0.1</v>
@@ -1933,7 +3058,52 @@
         <v>0.1</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1970,7 +3140,7 @@
         <v>0.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" t="n">
         <v>0.2</v>
@@ -1982,16 +3152,61 @@
         <v>0.9</v>
       </c>
       <c r="O27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P27" t="n">
         <v>0.5</v>
       </c>
-      <c r="P27" t="n">
-        <v>0.2</v>
-      </c>
       <c r="Q27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
@@ -2001,19 +3216,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E28" t="n">
         <v>0.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G28" t="n">
         <v>0.3</v>
@@ -2028,7 +3243,7 @@
         <v>0.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="L28" t="n">
         <v>0.2</v>
@@ -2040,16 +3255,61 @@
         <v>-0.8</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="P28" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/assets/keyframes/keyframes.xlsx
+++ b/assets/keyframes/keyframes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AR28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,39 @@
       <c r="AG1" s="1" t="n">
         <v>49.6</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>76.59999999999999</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,13 +658,46 @@
         <v>0.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF2" t="n">
         <v>0.1</v>
       </c>
       <c r="AG2" t="n">
         <v>0.2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -728,13 +794,46 @@
         <v>0.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" t="n">
         <v>0.2</v>
       </c>
       <c r="AG3" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,13 +930,46 @@
         <v>1.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AF4" t="n">
         <v>1</v>
       </c>
       <c r="AG4" t="n">
         <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="5">
@@ -942,6 +1074,39 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -986,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O6" t="n">
         <v>0.5</v>
@@ -1044,6 +1209,39 @@
       </c>
       <c r="AG6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1148,6 +1346,39 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1251,6 +1482,39 @@
       <c r="AG8" t="n">
         <v>3</v>
       </c>
+      <c r="AH8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1354,6 +1618,39 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1457,6 +1754,39 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1560,6 +1890,39 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1663,6 +2026,39 @@
       <c r="AG12" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1766,6 +2162,39 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1869,6 +2298,39 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1913,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1971,6 +2433,39 @@
       </c>
       <c r="AG15" t="n">
         <v>-0.3</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="16">
@@ -2075,6 +2570,39 @@
       <c r="AG16" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2119,7 +2647,7 @@
         <v>-0.31</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0.4</v>
@@ -2177,6 +2705,39 @@
       </c>
       <c r="AG17" t="n">
         <v>-0.04</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18">
@@ -2281,6 +2842,39 @@
       <c r="AG18" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2325,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2383,6 +2977,39 @@
       </c>
       <c r="AG19" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="20">
@@ -2428,10 +3055,10 @@
         <v>0.43</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P20" t="n">
         <v>0.1</v>
@@ -2486,6 +3113,39 @@
       </c>
       <c r="AG20" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -2590,6 +3250,39 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2634,10 +3327,10 @@
         <v>0.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P22" t="n">
         <v>0.3</v>
@@ -2692,6 +3385,39 @@
       </c>
       <c r="AG22" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
@@ -2737,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="O23" t="n">
         <v>-0.5</v>
@@ -2795,6 +3521,39 @@
       </c>
       <c r="AG23" t="n">
         <v>-0.6</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
@@ -2899,6 +3658,39 @@
       <c r="AG24" t="n">
         <v>-0.3</v>
       </c>
+      <c r="AH24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3002,6 +3794,39 @@
       <c r="AG25" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3105,6 +3930,39 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3208,6 +4066,39 @@
       <c r="AG27" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3252,7 +4143,7 @@
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>-0.3</v>
@@ -3310,6 +4201,39 @@
       </c>
       <c r="AG28" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/keyframes/keyframes.xlsx
+++ b/assets/keyframes/keyframes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR28"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>20.9</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>21.25</v>
+        <v>21.3</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>26.1</v>
@@ -465,7 +465,7 @@
         <v>28</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>29</v>
+        <v>30.6</v>
       </c>
       <c r="M1" s="1" t="n">
         <v>31.6</v>
@@ -534,7 +534,7 @@
         <v>50.6</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="AJ1" s="1" t="n">
         <v>52.9</v>
@@ -555,237 +555,243 @@
         <v>61.5</v>
       </c>
       <c r="AP1" s="1" t="n">
-        <v>62</v>
+        <v>61.8</v>
       </c>
       <c r="AQ1" s="1" t="n">
         <v>70</v>
       </c>
       <c r="AR1" s="1" t="n">
-        <v>76.59999999999999</v>
+        <v>70.09999999999999</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>camera_x</t>
+          <t>timestamps</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2</v>
+        <v>18.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>20.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>20.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>21.3</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6</v>
+        <v>26.1</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6</v>
+        <v>26.4</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.6</v>
+        <v>26.7</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.6</v>
+        <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.6</v>
+        <v>30.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>36.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1</v>
+        <v>37</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2</v>
+        <v>37.3</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2</v>
+        <v>38</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4</v>
+        <v>39</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6</v>
+        <v>39.8</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>41.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2</v>
+        <v>42.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2</v>
+        <v>45.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2</v>
+        <v>48.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2</v>
+        <v>48.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4</v>
+        <v>49.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1</v>
+        <v>49.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.2</v>
+        <v>49.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2</v>
+        <v>50.6</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.8</v>
+        <v>51.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.1</v>
+        <v>52.9</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>53.2</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6</v>
+        <v>57.2</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6</v>
+        <v>58.2</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6</v>
+        <v>59.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6</v>
+        <v>61.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6</v>
+        <v>61.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>70.09999999999999</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>camera_y</t>
+          <t>camera_x</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U3" t="n">
         <v>0.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA3" t="n">
         <v>0.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.2</v>
@@ -794,343 +800,352 @@
         <v>0.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AH3" t="n">
         <v>0.2</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>camera_z</t>
+          <t>camera_y</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AK4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AL4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR4" t="n">
-        <v>-5</v>
+        <v>0.2</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>target_x</t>
+          <t>camera_z</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2</v>
+        <v>0.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AR5" t="n">
-        <v>3</v>
+        <v>-0.1</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>target_y</t>
+          <t>target_x</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1151,37 +1166,37 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1</v>
@@ -1190,83 +1205,86 @@
         <v>0.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AR6" t="n">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>target_z</t>
+          <t>target_y</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6</v>
+        <v>0.05</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1287,375 +1305,384 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR7" t="n">
-        <v>-10</v>
+        <v>0.2</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>target_z</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>-0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>-0.6</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.1</v>
+        <v>-1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_x</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
         <v>0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="P9" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>12.6</v>
+        <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>12.6</v>
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_y</t>
+          <t>boardEuler_x</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1695,16 +1722,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1731,19 +1758,19 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-2.3</v>
+        <v>0.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>-5.5</v>
+        <v>0.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-8.699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1764,34 +1791,37 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AL10" t="n">
         <v>4.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.3</v>
+        <v>13.2</v>
       </c>
       <c r="AP10" t="n">
-        <v>6.3</v>
+        <v>12.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>6.3</v>
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>boardEuler_z</t>
+          <t>boardEuler_y</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1831,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1855,31 +1885,31 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1</v>
+        <v>-0.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.3</v>
+        <v>-2.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.1</v>
+        <v>-5.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-9.4</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1900,34 +1930,37 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.4</v>
+        <v>4.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.4</v>
+        <v>5.7</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.2</v>
+        <v>6.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.3</v>
+        <v>6.3</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
       <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>boardPos_x</t>
+          <t>boardEuler_z</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1937,133 +1970,136 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AN12" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>2</v>
+        <v>1.6</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>boardPos_y</t>
+          <t>boardPos_x</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2073,133 +2109,136 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="X13" t="n">
-        <v>0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC13" t="n">
         <v>0.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>boardPos_z</t>
+          <t>boardPos_y</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2239,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2263,31 +2302,31 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="AA14" t="n">
         <v>0.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2299,285 +2338,291 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO14" t="n">
         <v>0.1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.1</v>
+        <v>0.31</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>body_twist</t>
+          <t>boardPos_z</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Q15" t="n">
         <v>-0.1</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.1</v>
+        <v>-1</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>bodyHipPosition_x</t>
+          <t>body_twist</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="F16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Z16" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="AA16" t="n">
         <v>-0.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="AB16" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>-0.3</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AF16" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>-0.1</v>
@@ -2598,424 +2643,436 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>bodyHipPosition_y</t>
+          <t>bodyHipPosition_x</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04</v>
+        <v>0.3</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
         <v>-0.2</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.03</v>
+        <v>0.3</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.02</v>
+        <v>0.2</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.04</v>
+        <v>0.2</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.04</v>
+        <v>0.4</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AF17" t="n">
         <v>-0.2</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.04</v>
+        <v>0.3</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.31</v>
+        <v>-0.1</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.02</v>
+        <v>1.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.02</v>
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>bodyHipPosition_z</t>
+          <t>bodyHipPosition_y</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1</v>
+        <v>-0.19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1</v>
+        <v>-0.03</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="M18" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S18" t="n">
         <v>-0.2</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AF18" t="n">
         <v>-0.2</v>
       </c>
-      <c r="Q18" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="W18" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AG18" t="n">
-        <v>0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.2</v>
+        <v>-0.31</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO18" t="n">
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>-0.1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>hip_rotation_r</t>
+          <t>bodyHipPosition_z</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>-0.3</v>
       </c>
-      <c r="O19" t="n">
-        <v>0.3</v>
-      </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="X19" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.7</v>
+        <v>-1</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>hip_flexion_r</t>
+          <t>hip_rotation_r</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3028,64 +3085,64 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M20" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W20" t="n">
         <v>0.2</v>
       </c>
       <c r="X20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y20" t="n">
         <v>0.2</v>
@@ -3094,285 +3151,291 @@
         <v>0.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hip_abduction_r</t>
+          <t>hip_flexion_r</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="W21" t="n">
         <v>0.2</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Y21" t="n">
         <v>0.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC21" t="n">
         <v>0.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AL21" t="n">
         <v>0.2</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AN21" t="n">
         <v>0.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>knee_flexion_r</t>
+          <t>hip_abduction_r</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB22" t="n">
         <v>0.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD22" t="n">
         <v>0.2</v>
@@ -3381,34 +3444,34 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP22" t="n">
         <v>0.2</v>
@@ -3417,41 +3480,44 @@
         <v>0.2</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ankle_flexion_r</t>
+          <t>knee_flexion_r</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3460,215 +3526,218 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>0.8</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AK23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL23" t="n">
         <v>0.6</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AM23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AN23" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
       <c r="AO23" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hip_rotation_l</t>
+          <t>ankle_flexion_r</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O24" t="n">
         <v>-0.5</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="U24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="X24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AL24" t="n">
         <v>0</v>
@@ -3680,294 +3749,303 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP24" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>-0.5</v>
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>hip_flexion_l</t>
+          <t>hip_rotation_l</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1</v>
+        <v>-1.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>hip_abduction_l</t>
+          <t>hip_flexion_l</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K26" t="n">
         <v>0.1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="O26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AK26" t="n">
         <v>0.5</v>
       </c>
-      <c r="P26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
       <c r="AL26" t="n">
         <v>0.4</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AP26" t="n">
         <v>0.1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>knee_flexion_l</t>
+          <t>hip_abduction_l</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3980,260 +4058,405 @@
         <v>0.2</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0.1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.9</v>
       </c>
       <c r="O27" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q27" t="n">
         <v>0.1</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0.1</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W27" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.1</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
+          <t>knee_flexion_l</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
           <t>ankle_flexion_l</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="B29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.9</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="G29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="J29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M29" t="n">
         <v>1.1</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>-0.3</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S28" t="n">
+      <c r="AD29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF29" t="n">
         <v>1</v>
       </c>
-      <c r="T28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AG29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AN29" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AC28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>-0.1</v>
+      <c r="AO29" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
